--- a/biology/Botanique/Actinorhytis_calapparia/Actinorhytis_calapparia.xlsx
+++ b/biology/Botanique/Actinorhytis_calapparia/Actinorhytis_calapparia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Actinorhytis calapparia est une espèce de plantes à fleurs la famille des Arecaceae (palmiers). C'est la seule espèce validement décrite du genre Actinorhytis.
 </t>
@@ -511,11 +523,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Sous-famille : Arecoideae
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-famille : Arecoideae
 Tribu : Areceae
-Sous-tribu : Archontophoenicinae [1]</t>
+Sous-tribu : Archontophoenicinae </t>
         </is>
       </c>
     </row>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Actinorhytis calapparia est répandue en Nouvelle-Guinée et aux Îles Salomon.
 Elle pousse à l'état naturel dans les forêts tropicales humides, du bord de mer jusqu'à 1 000 mètres d'altitude.
@@ -575,7 +591,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Palmier au stipe solitaire et mince, en forme de plumeau. Il atteint parfois 12 mètres de hauteur. Les feuilles sont pennées et les fruits sont rouges, mesurant environ 6 cm.
 </t>
@@ -606,7 +624,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fruits sont parfois utilisés comme substitut à la noix de bétel. Certaines populations du Sud-Est de l'Asie leur attribuent des propriétés médicinales.
 </t>
